--- a/02Controlled library（受控库）/03Support（支持类）/01CM（配置管理）/TouristService_配置项状态报告.xlsx
+++ b/02Controlled library（受控库）/03Support（支持类）/01CM（配置管理）/TouristService_配置项状态报告.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>配置项状态报告</t>
   </si>
@@ -103,31 +103,22 @@
     <t>\03Baseline library\01Engineering\02RD</t>
   </si>
   <si>
-    <t>需求跟踪矩阵（Rational RequisitePro工件）</t>
-  </si>
-  <si>
-    <t>B002</t>
+    <t>用例实现规约（Rational RequisitePro工件）</t>
   </si>
   <si>
     <t>\03Baseline library\01Engineering\02RM</t>
   </si>
   <si>
-    <t>用例实现规约（Rational RequisitePro工件）</t>
-  </si>
-  <si>
-    <t>B003</t>
-  </si>
-  <si>
     <t>系统分析设计模型(Rose7.1工件)</t>
   </si>
   <si>
+    <t>伍锦彬</t>
+  </si>
+  <si>
     <t>\03Baseline library\01Engineering\03TS\01Analysis Design</t>
   </si>
   <si>
     <t>数据库设计说明书</t>
-  </si>
-  <si>
-    <t>赖海威</t>
   </si>
   <si>
     <t>\03Baseline library\01Engineering\03TS\03Database Design</t>
@@ -142,9 +133,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -201,9 +192,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,6 +282,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -223,89 +312,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -314,9 +320,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,20 +334,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -371,25 +362,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,157 +542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,9 +674,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,46 +746,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,21 +769,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -786,10 +777,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -798,133 +789,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1382,10 +1373,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1507,10 +1498,10 @@
         <v>21</v>
       </c>
       <c r="G6" s="15">
-        <v>43285</v>
+        <v>43301</v>
       </c>
       <c r="H6" s="16">
-        <v>43301</v>
+        <v>43306</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>22</v>
@@ -1540,10 +1531,10 @@
         <v>21</v>
       </c>
       <c r="G7" s="18">
-        <v>43285</v>
+        <v>43301</v>
       </c>
       <c r="H7" s="20">
-        <v>43304</v>
+        <v>43306</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>27</v>
@@ -1555,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:11">
+    <row r="8" s="1" customFormat="1" ht="36" customHeight="1" spans="1:11">
       <c r="A8" s="17" t="s">
         <v>29</v>
       </c>
@@ -1573,24 +1564,24 @@
         <v>21</v>
       </c>
       <c r="G8" s="18">
-        <v>43288</v>
+        <v>43306</v>
       </c>
       <c r="H8" s="20">
-        <v>43306</v>
+        <v>43334</v>
       </c>
       <c r="I8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="29" t="s">
         <v>30</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>31</v>
       </c>
       <c r="K8" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="36" customHeight="1" spans="1:11">
+    <row r="9" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
       <c r="A9" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>25</v>
@@ -1603,22 +1594,22 @@
         <v>43306</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="G9" s="18">
-        <v>43288</v>
+        <v>43306</v>
       </c>
       <c r="H9" s="20">
-        <v>43306</v>
+        <v>43334</v>
       </c>
       <c r="I9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="29" t="s">
-        <v>31</v>
-      </c>
       <c r="K9" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
@@ -1636,13 +1627,13 @@
         <v>43306</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="G10" s="18">
-        <v>43288</v>
+        <v>43306</v>
       </c>
       <c r="H10" s="20">
-        <v>43306</v>
+        <v>43315</v>
       </c>
       <c r="I10" s="19" t="s">
         <v>27</v>
@@ -1654,71 +1645,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A11" s="17" t="s">
+    <row r="11" s="1" customFormat="1" ht="3.75" customHeight="1"/>
+    <row r="12" s="1" customFormat="1" spans="1:9">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:11">
+      <c r="A13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="18">
-        <v>43306</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="18">
-        <v>43288</v>
-      </c>
-      <c r="H11" s="20">
-        <v>43306</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="30">
-        <v>0</v>
-      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="3.75" customHeight="1"/>
-    <row r="13" s="1" customFormat="1" spans="1:9">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:11">
-      <c r="A14" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="5:5">
-      <c r="E15" s="23"/>
+    <row r="14" s="1" customFormat="1" spans="5:5">
+      <c r="E14" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="F4:G4"/>
@@ -1728,14 +1686,13 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A13:K13"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D12:D65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D11:D65535">
       <formula1>"dd"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D7 D8:D10">
       <formula1>"开发中,已发行,基线"</formula1>
     </dataValidation>
   </dataValidations>
